--- a/localization/loc.xlsx
+++ b/localization/loc.xlsx
@@ -354,7 +354,7 @@
     <t>DIALOG10</t>
   </si>
   <si>
-    <t xml:space="preserve">Когда кончится эта зима, все запчасти уже замерзли.</t>
+    <t xml:space="preserve">Когда закончится эта зима, все запчасти уже замерзли.</t>
   </si>
   <si>
     <t xml:space="preserve">I hope winter will end soon or else we'll stay without our spares.</t>
@@ -1094,11 +1094,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="2" max="2" width="213.8515625"/>
+  </cols>
   <sheetData>
     <row r="1" ht="18">
       <c r="A1" s="1" t="s">
@@ -1763,7 +1766,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/localization/loc.xlsx
+++ b/localization/loc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t xml:space="preserve">Hello there, in this game you will be able to see the history of one computer that decided to travel the world. You have to go through a difficult and dangerous path in order to complete the journey.</t>
+  </si>
+  <si>
+    <t>SOON</t>
+  </si>
+  <si>
+    <t>СКОРО!!!!</t>
+  </si>
+  <si>
+    <t>SOON!!!!</t>
   </si>
   <si>
     <t>HIDS</t>
@@ -1440,7 +1449,7 @@
       <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1451,7 +1460,7 @@
       <c r="B32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1473,7 +1482,7 @@
       <c r="B34" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1492,7 +1501,7 @@
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1506,7 +1515,7 @@
       <c r="B37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1517,7 +1526,7 @@
       <c r="B38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1528,7 +1537,7 @@
       <c r="B39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1539,7 +1548,7 @@
       <c r="B40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1550,7 +1559,7 @@
       <c r="B41" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1561,7 +1570,7 @@
       <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1594,7 +1603,7 @@
       <c r="B45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1624,7 +1633,7 @@
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1671,7 +1680,7 @@
       <c r="B52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1682,7 +1691,7 @@
       <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1704,7 +1713,7 @@
       <c r="B55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1712,7 +1721,7 @@
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1756,11 +1765,22 @@
       <c r="A60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="61" ht="18">
+      <c r="A61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
